--- a/Örnek 18 - Formüller Tekrar.xlsx
+++ b/Örnek 18 - Formüller Tekrar.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04BA9655-55E8-412D-97C7-16310DF14D84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CF06A3-EDA8-4DA9-8C81-73B34F62173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tekrar" sheetId="40" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>adı</t>
   </si>
@@ -109,12 +112,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -629,28 +638,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="C2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="35.75" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:14" ht="13.6" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:14" ht="30.6" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,9 +672,12 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="H3" s="10">
+        <f>AVERAGE(D4:D12)</f>
+        <v>42.222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
@@ -682,11 +694,13 @@
       <c r="K4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16">
+        <v>20215070055</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
@@ -699,15 +713,20 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <f>MAX(E4:E12)</f>
+        <v>175</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
@@ -724,11 +743,13 @@
       <c r="K6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
@@ -743,7 +764,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
@@ -756,9 +777,12 @@
       <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="H8" s="11">
+        <f>MIN(D4:D12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
@@ -773,7 +797,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
@@ -786,9 +810,12 @@
       <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="3:14" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="H10" s="11">
+        <f>SMALL(E4:E12,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
@@ -801,9 +828,12 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="11">
+        <f>LARGE(D4:D12,4)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
@@ -818,17 +848,23 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="3:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:14" ht="32.299999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="3:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="12">
+        <f>DATE(2021,12,13)</f>
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="41.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <f ca="1">NOW()</f>
+        <v>44543.071243402781</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
